--- a/tests_results/test_results.xlsx
+++ b/tests_results/test_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erik Kajacka\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\kajackae\Projects\algorithmicProject-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16C9BF0-2E8C-4BB8-8996-6C434586186C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6524849C-11E2-4384-A86F-F4BDAE42A239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{C55F92AA-2692-4D73-8761-17C43791B5A4}"/>
   </bookViews>
@@ -722,8 +722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED478269-897B-4874-B082-BA1C8495327D}">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,13 +1283,13 @@
       <c r="B29" s="14">
         <v>13</v>
       </c>
-      <c r="C29" s="21">
-        <v>5</v>
-      </c>
-      <c r="D29" s="21">
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
         <v>17</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29">
         <v>47</v>
       </c>
       <c r="F29" s="2">
@@ -1303,13 +1303,13 @@
       <c r="B30" s="14">
         <v>17</v>
       </c>
-      <c r="C30" s="21">
-        <v>5</v>
-      </c>
-      <c r="D30" s="21">
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
         <v>23</v>
       </c>
-      <c r="E30" s="21">
+      <c r="E30">
         <v>63</v>
       </c>
       <c r="F30" s="2">
@@ -1323,13 +1323,13 @@
       <c r="B31" s="14">
         <v>17</v>
       </c>
-      <c r="C31" s="21">
-        <v>5</v>
-      </c>
-      <c r="D31" s="21">
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
         <v>23</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31">
         <v>63</v>
       </c>
       <c r="F31" s="2">
@@ -1343,13 +1343,13 @@
       <c r="B32" s="14">
         <v>3</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32">
         <v>2</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32">
         <v>6</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32">
         <v>12</v>
       </c>
       <c r="F32" s="2">
@@ -1363,13 +1363,13 @@
       <c r="B33" s="14">
         <v>5</v>
       </c>
-      <c r="C33" s="21">
+      <c r="C33">
         <v>3</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33">
         <v>13</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33">
         <v>28</v>
       </c>
       <c r="F33" s="2">
@@ -1383,13 +1383,13 @@
       <c r="B34" s="14">
         <v>7</v>
       </c>
-      <c r="C34" s="21">
+      <c r="C34">
         <v>4</v>
       </c>
-      <c r="D34" s="21">
+      <c r="D34">
         <v>9</v>
       </c>
-      <c r="E34" s="21">
+      <c r="E34">
         <v>21</v>
       </c>
       <c r="F34" s="2">
@@ -1403,13 +1403,13 @@
       <c r="B35" s="14">
         <v>7</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C35">
         <v>4</v>
       </c>
-      <c r="D35" s="21">
+      <c r="D35">
         <v>9</v>
       </c>
-      <c r="E35" s="21">
+      <c r="E35">
         <v>21</v>
       </c>
       <c r="F35" s="2">
@@ -1423,13 +1423,13 @@
       <c r="B36" s="14">
         <v>5</v>
       </c>
-      <c r="C36" s="21">
-        <v>5</v>
-      </c>
-      <c r="D36" s="21">
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
         <v>37</v>
       </c>
-      <c r="E36" s="21">
+      <c r="E36">
         <v>73</v>
       </c>
       <c r="F36" s="2">
@@ -1443,13 +1443,13 @@
       <c r="B37" s="14">
         <v>12</v>
       </c>
-      <c r="C37" s="21">
+      <c r="C37">
         <v>7</v>
       </c>
-      <c r="D37" s="21">
+      <c r="D37">
         <v>24</v>
       </c>
-      <c r="E37" s="21">
+      <c r="E37">
         <v>51</v>
       </c>
       <c r="F37" s="2">
@@ -1463,13 +1463,13 @@
       <c r="B38" s="14">
         <v>13</v>
       </c>
-      <c r="C38" s="21">
+      <c r="C38">
         <v>3</v>
       </c>
-      <c r="D38" s="21">
+      <c r="D38">
         <v>9</v>
       </c>
-      <c r="E38" s="21">
+      <c r="E38">
         <v>28</v>
       </c>
       <c r="F38" s="2">
@@ -1483,13 +1483,13 @@
       <c r="B39" s="14">
         <v>12</v>
       </c>
-      <c r="C39" s="21">
-        <v>10</v>
-      </c>
-      <c r="D39" s="21">
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
         <v>143</v>
       </c>
-      <c r="E39" s="21">
+      <c r="E39">
         <v>289</v>
       </c>
       <c r="F39" s="2">
@@ -1503,13 +1503,13 @@
       <c r="B40" s="14">
         <v>21</v>
       </c>
-      <c r="C40" s="21">
+      <c r="C40">
         <v>2</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D40">
         <v>4</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E40">
         <v>27</v>
       </c>
       <c r="F40" s="2">
@@ -1523,13 +1523,13 @@
       <c r="B41" s="14">
         <v>13</v>
       </c>
-      <c r="C41" s="21">
+      <c r="C41">
         <v>6</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D41">
         <v>17</v>
       </c>
-      <c r="E41" s="21">
+      <c r="E41">
         <v>47</v>
       </c>
       <c r="F41" s="2">
@@ -1543,13 +1543,13 @@
       <c r="B42" s="14">
         <v>12</v>
       </c>
-      <c r="C42" s="21">
+      <c r="C42">
         <v>6</v>
       </c>
-      <c r="D42" s="21">
+      <c r="D42">
         <v>22</v>
       </c>
-      <c r="E42" s="21">
+      <c r="E42">
         <v>53</v>
       </c>
       <c r="F42" s="2">
@@ -1563,13 +1563,13 @@
       <c r="B43" s="14">
         <v>12</v>
       </c>
-      <c r="C43" s="21">
+      <c r="C43">
         <v>6</v>
       </c>
-      <c r="D43" s="21">
+      <c r="D43">
         <v>22</v>
       </c>
-      <c r="E43" s="21">
+      <c r="E43">
         <v>53</v>
       </c>
       <c r="F43" s="2">
@@ -1583,13 +1583,13 @@
       <c r="B44" s="14">
         <v>10</v>
       </c>
-      <c r="C44" s="21">
-        <v>5</v>
-      </c>
-      <c r="D44" s="21">
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
         <v>18</v>
       </c>
-      <c r="E44" s="21">
+      <c r="E44">
         <v>41</v>
       </c>
       <c r="F44" s="2">
@@ -1603,13 +1603,13 @@
       <c r="B45" s="14">
         <v>18</v>
       </c>
-      <c r="C45" s="21">
-        <v>0</v>
-      </c>
-      <c r="D45" s="21">
-        <v>0</v>
-      </c>
-      <c r="E45" s="21">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
         <v>18</v>
       </c>
       <c r="F45" s="2">
@@ -1623,13 +1623,13 @@
       <c r="B46" s="14">
         <v>23</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46">
         <v>2</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46">
         <v>4</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46">
         <v>29</v>
       </c>
       <c r="F46" s="2">
@@ -1643,13 +1643,13 @@
       <c r="B47" s="14">
         <v>14</v>
       </c>
-      <c r="C47" s="21">
+      <c r="C47">
         <v>4</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D47">
         <v>4</v>
       </c>
-      <c r="E47" s="21">
+      <c r="E47">
         <v>22</v>
       </c>
       <c r="F47" s="2">
@@ -1663,13 +1663,13 @@
       <c r="B48" s="14">
         <v>14</v>
       </c>
-      <c r="C48" s="21">
-        <v>10</v>
-      </c>
-      <c r="D48" s="21">
+      <c r="C48">
+        <v>10</v>
+      </c>
+      <c r="D48">
         <v>187</v>
       </c>
-      <c r="E48" s="21">
+      <c r="E48">
         <v>383</v>
       </c>
       <c r="F48" s="2">
@@ -1683,13 +1683,13 @@
       <c r="B49" s="14">
         <v>10</v>
       </c>
-      <c r="C49" s="21">
-        <v>10</v>
-      </c>
-      <c r="D49" s="21">
+      <c r="C49">
+        <v>10</v>
+      </c>
+      <c r="D49">
         <v>186</v>
       </c>
-      <c r="E49" s="21">
+      <c r="E49">
         <v>375</v>
       </c>
       <c r="F49" s="2">
@@ -1703,13 +1703,13 @@
       <c r="B50" s="14">
         <v>10</v>
       </c>
-      <c r="C50" s="21">
+      <c r="C50">
         <v>8</v>
       </c>
-      <c r="D50" s="21">
+      <c r="D50">
         <v>13</v>
       </c>
-      <c r="E50" s="21">
+      <c r="E50">
         <v>36</v>
       </c>
       <c r="F50" s="2">
@@ -1757,13 +1757,13 @@
         <v>21</v>
       </c>
       <c r="D53" s="13">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="E53" s="13">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F53" s="16">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -1777,10 +1777,10 @@
         <v>5</v>
       </c>
       <c r="D54" s="21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E54" s="21">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F54" s="2">
         <v>0</v>
@@ -1797,10 +1797,10 @@
         <v>5</v>
       </c>
       <c r="D55" s="21">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E55" s="21">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F55" s="2">
         <v>0</v>
@@ -1817,10 +1817,10 @@
         <v>5</v>
       </c>
       <c r="D56" s="21">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E56" s="21">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F56" s="2">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>7</v>
       </c>
       <c r="D62" s="21">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E62" s="21">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F62" s="2">
         <v>0</v>
@@ -1977,13 +1977,13 @@
         <v>10</v>
       </c>
       <c r="D64" s="21">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E64" s="21">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F64" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2017,10 +2017,10 @@
         <v>6</v>
       </c>
       <c r="D66" s="21">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E66" s="21">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F66" s="2">
         <v>0</v>
@@ -2037,13 +2037,13 @@
         <v>6</v>
       </c>
       <c r="D67" s="21">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E67" s="21">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F67" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2057,10 +2057,10 @@
         <v>6</v>
       </c>
       <c r="D68" s="21">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E68" s="21">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2">
         <v>0</v>
@@ -2077,10 +2077,10 @@
         <v>5</v>
       </c>
       <c r="D69" s="21">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E69" s="21">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F69" s="2">
         <v>0</v>
@@ -2157,13 +2157,13 @@
         <v>10</v>
       </c>
       <c r="D73" s="21">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E73" s="21">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="F73" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2173,7 +2173,7 @@
       <c r="B74" s="14">
         <v>10</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="21">
         <v>10</v>
       </c>
       <c r="D74" s="21">
@@ -2183,7 +2183,7 @@
         <v>108</v>
       </c>
       <c r="F74" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2193,17 +2193,17 @@
       <c r="B75" s="14">
         <v>10</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="21">
         <v>8</v>
       </c>
       <c r="D75" s="21">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E75" s="21">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="F75" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
